--- a/data/trans_orig/AIRE_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/AIRE_2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE47793-674F-4F83-9EED-A8CBFF4B20A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8130E6-0F83-421A-8592-709C8939B4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{11AF2EB5-3D91-4C39-8907-ECE05324F1BA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5685F16D-4EE1-4F97-932E-1C61C0566D8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="402">
   <si>
     <t>Población según los motivos por los que no pagaría para realizar actuaciones que reduzcan la contaminación ambiental en su municipio o lugar de residencia en 2023 (Tasa respuesta: 38,8%)</t>
   </si>
@@ -71,1195 +71,1174 @@
     <t>Otro motivo</t>
   </si>
   <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>No puedo permitírmelo (económicamente)</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>Ya pago demasiados impuestos</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>No me siento responsable de la contaminación del aire</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>No puedo permitírmelo (económicamente)</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>Ya pago demasiados impuestos</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>No confío en las actuaciones que se realicen por parte de la administración pública</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>No me siento responsable de la contaminación del aire</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>14,9%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>12,84%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1674,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F880C3C-A0A2-4CE4-A192-3B5F3C3012B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE98100-B7C5-4E51-911D-6DC4D9799B77}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1795,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>4560</v>
+        <v>6417</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1810,7 +1789,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1086</v>
+        <v>1129</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1825,7 +1804,7 @@
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>5646</v>
+        <v>7546</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1846,7 +1825,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>17683</v>
+        <v>19630</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1861,7 +1840,7 @@
         <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>47244</v>
+        <v>50450</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1876,7 +1855,7 @@
         <v>134</v>
       </c>
       <c r="N5" s="7">
-        <v>64927</v>
+        <v>70080</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1897,7 +1876,7 @@
         <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>59925</v>
+        <v>68162</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1912,7 +1891,7 @@
         <v>120</v>
       </c>
       <c r="I6" s="7">
-        <v>62739</v>
+        <v>66319</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1927,7 +1906,7 @@
         <v>196</v>
       </c>
       <c r="N6" s="7">
-        <v>122664</v>
+        <v>134482</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1948,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>18366</v>
+        <v>21610</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1963,7 +1942,7 @@
         <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>11576</v>
+        <v>12042</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1978,7 +1957,7 @@
         <v>42</v>
       </c>
       <c r="N7" s="7">
-        <v>29942</v>
+        <v>33652</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1999,7 +1978,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>9645</v>
+        <v>10710</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>51</v>
@@ -2014,7 +1993,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>8316</v>
+        <v>8596</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>54</v>
@@ -2029,7 +2008,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>17961</v>
+        <v>19306</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>57</v>
@@ -2050,7 +2029,7 @@
         <v>149</v>
       </c>
       <c r="D9" s="7">
-        <v>110179</v>
+        <v>126529</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -2065,7 +2044,7 @@
         <v>259</v>
       </c>
       <c r="I9" s="7">
-        <v>130960</v>
+        <v>138536</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -2080,7 +2059,7 @@
         <v>408</v>
       </c>
       <c r="N9" s="7">
-        <v>241140</v>
+        <v>265066</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -2103,7 +2082,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>42551</v>
+        <v>43161</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>62</v>
@@ -2118,7 +2097,7 @@
         <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>47646</v>
+        <v>44635</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>65</v>
@@ -2133,7 +2112,7 @@
         <v>89</v>
       </c>
       <c r="N10" s="7">
-        <v>90197</v>
+        <v>87796</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2154,7 +2133,7 @@
         <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>82209</v>
+        <v>82085</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -2169,7 +2148,7 @@
         <v>126</v>
       </c>
       <c r="I11" s="7">
-        <v>88299</v>
+        <v>81898</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>74</v>
@@ -2184,7 +2163,7 @@
         <v>186</v>
       </c>
       <c r="N11" s="7">
-        <v>170508</v>
+        <v>163983</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2205,7 +2184,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="7">
-        <v>68924</v>
+        <v>66120</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>80</v>
@@ -2220,7 +2199,7 @@
         <v>56</v>
       </c>
       <c r="I12" s="7">
-        <v>43556</v>
+        <v>40249</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>83</v>
@@ -2235,7 +2214,7 @@
         <v>111</v>
       </c>
       <c r="N12" s="7">
-        <v>112480</v>
+        <v>106369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>86</v>
@@ -2256,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3255</v>
+        <v>3342</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>89</v>
@@ -2271,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>5508</v>
+        <v>5064</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>92</v>
@@ -2286,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>8763</v>
+        <v>8406</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>95</v>
@@ -2307,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>3330</v>
+        <v>3148</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -2322,7 +2301,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>10473</v>
+        <v>9703</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>101</v>
@@ -2337,7 +2316,7 @@
         <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>13803</v>
+        <v>12852</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>104</v>
@@ -2358,7 +2337,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="7">
-        <v>200270</v>
+        <v>197856</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -2373,7 +2352,7 @@
         <v>267</v>
       </c>
       <c r="I15" s="7">
-        <v>195482</v>
+        <v>181550</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -2388,7 +2367,7 @@
         <v>414</v>
       </c>
       <c r="N15" s="7">
-        <v>395752</v>
+        <v>379406</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2411,7 +2390,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>6950</v>
+        <v>6811</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>108</v>
@@ -2420,37 +2399,37 @@
         <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>8046</v>
+        <v>7371</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>14996</v>
+        <v>14182</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,46 +2441,46 @@
         <v>59</v>
       </c>
       <c r="D17" s="7">
-        <v>43941</v>
+        <v>42404</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>89</v>
       </c>
       <c r="I17" s="7">
-        <v>55748</v>
+        <v>52010</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
       </c>
       <c r="N17" s="7">
-        <v>99689</v>
+        <v>94414</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,28 +2492,28 @@
         <v>65</v>
       </c>
       <c r="D18" s="7">
-        <v>57414</v>
+        <v>56584</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>77</v>
       </c>
       <c r="I18" s="7">
-        <v>49568</v>
+        <v>46117</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>130</v>
@@ -2543,7 +2522,7 @@
         <v>142</v>
       </c>
       <c r="N18" s="7">
-        <v>106983</v>
+        <v>102701</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>131</v>
@@ -2564,7 +2543,7 @@
         <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>9119</v>
+        <v>8845</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>134</v>
@@ -2579,7 +2558,7 @@
         <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>12682</v>
+        <v>11878</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>137</v>
@@ -2594,7 +2573,7 @@
         <v>30</v>
       </c>
       <c r="N19" s="7">
-        <v>21801</v>
+        <v>20724</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>140</v>
@@ -2615,7 +2594,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="7">
-        <v>20044</v>
+        <v>19406</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>143</v>
@@ -2630,7 +2609,7 @@
         <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>17935</v>
+        <v>16951</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>146</v>
@@ -2645,7 +2624,7 @@
         <v>53</v>
       </c>
       <c r="N20" s="7">
-        <v>37980</v>
+        <v>36356</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>149</v>
@@ -2666,7 +2645,7 @@
         <v>167</v>
       </c>
       <c r="D21" s="7">
-        <v>137469</v>
+        <v>134050</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -2681,7 +2660,7 @@
         <v>226</v>
       </c>
       <c r="I21" s="7">
-        <v>143980</v>
+        <v>134327</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -2696,7 +2675,7 @@
         <v>393</v>
       </c>
       <c r="N21" s="7">
-        <v>281449</v>
+        <v>268377</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -2719,7 +2698,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="7">
-        <v>25568</v>
+        <v>27477</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>153</v>
@@ -2734,7 +2713,7 @@
         <v>49</v>
       </c>
       <c r="I22" s="7">
-        <v>36376</v>
+        <v>33715</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>156</v>
@@ -2749,7 +2728,7 @@
         <v>69</v>
       </c>
       <c r="N22" s="7">
-        <v>61944</v>
+        <v>61191</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>159</v>
@@ -2770,7 +2749,7 @@
         <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>23377</v>
+        <v>21331</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>162</v>
@@ -2785,7 +2764,7 @@
         <v>59</v>
       </c>
       <c r="I23" s="7">
-        <v>37980</v>
+        <v>35568</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>165</v>
@@ -2800,7 +2779,7 @@
         <v>82</v>
       </c>
       <c r="N23" s="7">
-        <v>61357</v>
+        <v>56898</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>168</v>
@@ -2821,7 +2800,7 @@
         <v>29</v>
       </c>
       <c r="D24" s="7">
-        <v>35421</v>
+        <v>34167</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>171</v>
@@ -2836,7 +2815,7 @@
         <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>22621</v>
+        <v>20936</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>174</v>
@@ -2851,7 +2830,7 @@
         <v>66</v>
       </c>
       <c r="N24" s="7">
-        <v>58042</v>
+        <v>55103</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>177</v>
@@ -2872,46 +2851,46 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>917</v>
+        <v>882</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>7696</v>
+        <v>6731</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>8613</v>
+        <v>7613</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,46 +2902,46 @@
         <v>42</v>
       </c>
       <c r="D26" s="7">
-        <v>33923</v>
+        <v>33008</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
       </c>
       <c r="I26" s="7">
-        <v>47154</v>
+        <v>43882</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
       </c>
       <c r="N26" s="7">
-        <v>81077</v>
+        <v>76890</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2953,7 @@
         <v>116</v>
       </c>
       <c r="D27" s="7">
-        <v>119207</v>
+        <v>116864</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -2989,7 +2968,7 @@
         <v>231</v>
       </c>
       <c r="I27" s="7">
-        <v>151826</v>
+        <v>140831</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3004,7 +2983,7 @@
         <v>347</v>
       </c>
       <c r="N27" s="7">
-        <v>271033</v>
+        <v>257695</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3018,7 +2997,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3033,40 +3012,40 @@
         <v>90</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>1663</v>
+        <v>1529</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
       </c>
       <c r="N28" s="7">
-        <v>1663</v>
+        <v>1529</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,46 +3057,46 @@
         <v>15</v>
       </c>
       <c r="D29" s="7">
-        <v>9364</v>
+        <v>8508</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
       </c>
       <c r="I29" s="7">
-        <v>23783</v>
+        <v>21599</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
       </c>
       <c r="N29" s="7">
-        <v>33147</v>
+        <v>30107</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,46 +3108,46 @@
         <v>52</v>
       </c>
       <c r="D30" s="7">
-        <v>38211</v>
+        <v>34616</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H30" s="7">
         <v>90</v>
       </c>
       <c r="I30" s="7">
-        <v>47929</v>
+        <v>42406</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M30" s="7">
         <v>142</v>
       </c>
       <c r="N30" s="7">
-        <v>86140</v>
+        <v>77023</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,16 +3159,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>1437</v>
+        <v>1296</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3201,25 +3180,25 @@
         <v>90</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>1437</v>
+        <v>1296</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>90</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,46 +3210,46 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>559</v>
+        <v>522</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>1463</v>
+        <v>1342</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,7 +3261,7 @@
         <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>49571</v>
+        <v>44942</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -3297,7 +3276,7 @@
         <v>152</v>
       </c>
       <c r="I33" s="7">
-        <v>74279</v>
+        <v>66354</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -3312,7 +3291,7 @@
         <v>222</v>
       </c>
       <c r="N33" s="7">
-        <v>123850</v>
+        <v>111296</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -3326,7 +3305,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3335,46 +3314,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>1858</v>
+        <v>1728</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>241</v>
+        <v>181</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>2350</v>
+        <v>2205</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,46 +3365,46 @@
         <v>54</v>
       </c>
       <c r="D35" s="7">
-        <v>37957</v>
+        <v>37398</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>83</v>
       </c>
       <c r="I35" s="7">
-        <v>40934</v>
+        <v>38493</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>137</v>
       </c>
       <c r="N35" s="7">
-        <v>78891</v>
+        <v>75891</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,46 +3416,46 @@
         <v>63</v>
       </c>
       <c r="D36" s="7">
-        <v>49804</v>
+        <v>48643</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>80</v>
       </c>
       <c r="I36" s="7">
-        <v>55433</v>
+        <v>51699</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>143</v>
       </c>
       <c r="N36" s="7">
-        <v>105237</v>
+        <v>100342</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,46 +3467,46 @@
         <v>10</v>
       </c>
       <c r="D37" s="7">
-        <v>7123</v>
+        <v>7047</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>15</v>
       </c>
       <c r="I37" s="7">
-        <v>9236</v>
+        <v>8539</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
       </c>
       <c r="N37" s="7">
-        <v>16358</v>
+        <v>15586</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,46 +3518,46 @@
         <v>20</v>
       </c>
       <c r="D38" s="7">
-        <v>16390</v>
+        <v>15791</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>23</v>
       </c>
       <c r="I38" s="7">
-        <v>12892</v>
+        <v>11872</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>43</v>
       </c>
       <c r="N38" s="7">
-        <v>29282</v>
+        <v>27663</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,7 +3569,7 @@
         <v>148</v>
       </c>
       <c r="D39" s="7">
-        <v>111766</v>
+        <v>109356</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -3605,7 +3584,7 @@
         <v>204</v>
       </c>
       <c r="I39" s="7">
-        <v>120353</v>
+        <v>112331</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -3620,7 +3599,7 @@
         <v>352</v>
       </c>
       <c r="N39" s="7">
-        <v>232118</v>
+        <v>221687</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -3634,7 +3613,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3643,46 +3622,46 @@
         <v>21</v>
       </c>
       <c r="D40" s="7">
-        <v>30508</v>
+        <v>31587</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
       </c>
       <c r="I40" s="7">
-        <v>15336</v>
+        <v>14116</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>46</v>
       </c>
       <c r="N40" s="7">
-        <v>45844</v>
+        <v>45703</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,46 +3673,46 @@
         <v>36</v>
       </c>
       <c r="D41" s="7">
-        <v>33498</v>
+        <v>32206</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H41" s="7">
         <v>79</v>
       </c>
       <c r="I41" s="7">
-        <v>161923</v>
+        <v>251362</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>115</v>
       </c>
       <c r="N41" s="7">
-        <v>195421</v>
+        <v>283568</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,46 +3724,46 @@
         <v>90</v>
       </c>
       <c r="D42" s="7">
-        <v>89272</v>
+        <v>90914</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>137</v>
       </c>
       <c r="I42" s="7">
-        <v>97039</v>
+        <v>90286</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
         <v>227</v>
       </c>
       <c r="N42" s="7">
-        <v>186312</v>
+        <v>181200</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3796,46 +3775,46 @@
         <v>24</v>
       </c>
       <c r="D43" s="7">
-        <v>28865</v>
+        <v>27987</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H43" s="7">
         <v>38</v>
       </c>
       <c r="I43" s="7">
-        <v>30606</v>
+        <v>28432</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>311</v>
+        <v>98</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M43" s="7">
         <v>62</v>
       </c>
       <c r="N43" s="7">
-        <v>59471</v>
+        <v>56419</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,46 +3826,46 @@
         <v>14</v>
       </c>
       <c r="D44" s="7">
-        <v>13067</v>
+        <v>12764</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>115</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
         <v>22</v>
       </c>
       <c r="I44" s="7">
-        <v>12245</v>
+        <v>11443</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
         <v>36</v>
       </c>
       <c r="N44" s="7">
-        <v>25312</v>
+        <v>24207</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,7 +3877,7 @@
         <v>185</v>
       </c>
       <c r="D45" s="7">
-        <v>195210</v>
+        <v>195458</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -3913,7 +3892,7 @@
         <v>301</v>
       </c>
       <c r="I45" s="7">
-        <v>317149</v>
+        <v>395640</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -3928,7 +3907,7 @@
         <v>486</v>
       </c>
       <c r="N45" s="7">
-        <v>512359</v>
+        <v>591098</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -3942,7 +3921,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3951,46 +3930,46 @@
         <v>2</v>
       </c>
       <c r="D46" s="7">
-        <v>3136</v>
+        <v>2681</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>90</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>1006</v>
+        <v>864</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
       </c>
       <c r="N46" s="7">
-        <v>4142</v>
+        <v>3545</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,46 +3981,46 @@
         <v>43</v>
       </c>
       <c r="D47" s="7">
-        <v>50222</v>
+        <v>42299</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H47" s="7">
         <v>78</v>
       </c>
       <c r="I47" s="7">
-        <v>69949</v>
+        <v>56290</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="M47" s="7">
         <v>121</v>
       </c>
       <c r="N47" s="7">
-        <v>120170</v>
+        <v>98589</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,46 +4032,46 @@
         <v>88</v>
       </c>
       <c r="D48" s="7">
-        <v>89100</v>
+        <v>75813</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>117</v>
+        <v>336</v>
       </c>
       <c r="H48" s="7">
         <v>100</v>
       </c>
       <c r="I48" s="7">
-        <v>77098</v>
+        <v>64470</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>338</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M48" s="7">
         <v>188</v>
       </c>
       <c r="N48" s="7">
-        <v>166198</v>
+        <v>140283</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,46 +4083,46 @@
         <v>138</v>
       </c>
       <c r="D49" s="7">
-        <v>143308</v>
+        <v>120674</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H49" s="7">
         <v>173</v>
       </c>
       <c r="I49" s="7">
-        <v>135505</v>
+        <v>113183</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M49" s="7">
         <v>311</v>
       </c>
       <c r="N49" s="7">
-        <v>278814</v>
+        <v>233856</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,46 +4134,46 @@
         <v>53</v>
       </c>
       <c r="D50" s="7">
-        <v>50205</v>
+        <v>42503</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H50" s="7">
         <v>93</v>
       </c>
       <c r="I50" s="7">
-        <v>81077</v>
+        <v>65848</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M50" s="7">
         <v>146</v>
       </c>
       <c r="N50" s="7">
-        <v>131282</v>
+        <v>108351</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,7 +4185,7 @@
         <v>324</v>
       </c>
       <c r="D51" s="7">
-        <v>335970</v>
+        <v>283970</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>60</v>
@@ -4221,7 +4200,7 @@
         <v>446</v>
       </c>
       <c r="I51" s="7">
-        <v>364635</v>
+        <v>300655</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>60</v>
@@ -4236,7 +4215,7 @@
         <v>770</v>
       </c>
       <c r="N51" s="7">
-        <v>700606</v>
+        <v>584625</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>60</v>
@@ -4259,46 +4238,46 @@
         <v>81</v>
       </c>
       <c r="D52" s="7">
-        <v>113767</v>
+        <v>118610</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H52" s="7">
         <v>160</v>
       </c>
       <c r="I52" s="7">
-        <v>113016</v>
+        <v>105088</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M52" s="7">
         <v>241</v>
       </c>
       <c r="N52" s="7">
-        <v>226783</v>
+        <v>223698</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>372</v>
+        <v>103</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>373</v>
+        <v>91</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,46 +4289,46 @@
         <v>328</v>
       </c>
       <c r="D53" s="7">
-        <v>298251</v>
+        <v>285861</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="H53" s="7">
         <v>667</v>
       </c>
       <c r="I53" s="7">
-        <v>525859</v>
+        <v>587670</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>379</v>
+        <v>193</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="M53" s="7">
         <v>995</v>
       </c>
       <c r="N53" s="7">
-        <v>824111</v>
+        <v>873531</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>81</v>
+        <v>374</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,46 +4340,46 @@
         <v>518</v>
       </c>
       <c r="D54" s="7">
-        <v>488072</v>
+        <v>475019</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>383</v>
+        <v>75</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>385</v>
+        <v>125</v>
       </c>
       <c r="H54" s="7">
         <v>697</v>
       </c>
       <c r="I54" s="7">
-        <v>455984</v>
+        <v>422483</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M54" s="7">
         <v>1215</v>
       </c>
       <c r="N54" s="7">
-        <v>944056</v>
+        <v>897502</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,46 +4391,46 @@
         <v>208</v>
       </c>
       <c r="D55" s="7">
-        <v>212389</v>
+        <v>191683</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H55" s="7">
         <v>284</v>
       </c>
       <c r="I55" s="7">
-        <v>212809</v>
+        <v>185868</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="M55" s="7">
         <v>492</v>
       </c>
       <c r="N55" s="7">
-        <v>425198</v>
+        <v>377551</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,46 +4442,46 @@
         <v>171</v>
       </c>
       <c r="D56" s="7">
-        <v>147163</v>
+        <v>137852</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>267</v>
+        <v>394</v>
       </c>
       <c r="H56" s="7">
         <v>278</v>
       </c>
       <c r="I56" s="7">
-        <v>190995</v>
+        <v>169115</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M56" s="7">
         <v>449</v>
       </c>
       <c r="N56" s="7">
-        <v>338159</v>
+        <v>306967</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,7 +4493,7 @@
         <v>1306</v>
       </c>
       <c r="D57" s="7">
-        <v>1259642</v>
+        <v>1209025</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
@@ -4529,7 +4508,7 @@
         <v>2086</v>
       </c>
       <c r="I57" s="7">
-        <v>1498664</v>
+        <v>1470224</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -4544,7 +4523,7 @@
         <v>3392</v>
       </c>
       <c r="N57" s="7">
-        <v>2758306</v>
+        <v>2679249</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>60</v>
@@ -4558,7 +4537,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
